--- a/models/US_with_CBO_OOS/data/US_fred.xlsx
+++ b/models/US_with_CBO_OOS/data/US_fred.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_no_core_rt/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_with_CBO_OOS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F168D1-505A-E248-B4B8-6972F55B5E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CF255-553A-7B4B-8785-2984CF89349E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>frequency</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>GDP</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>GDPPOT</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,6 +173,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,9 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH6"/>
+  <dimension ref="A1:AMH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -578,10 +589,10 @@
     </row>
     <row r="6" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -590,6 +601,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/models/US_with_CBO_OOS/data/US_fred.xlsx
+++ b/models/US_with_CBO_OOS/data/US_fred.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_with_CBO_OOS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CF255-553A-7B4B-8785-2984CF89349E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75042C-E7AF-7144-86BA-4B7F1517E176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11980" yWindow="5500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alfred" sheetId="1" r:id="rId1"/>
@@ -495,9 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -589,10 +587,10 @@
     </row>
     <row r="6" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -606,10 +604,10 @@
     </row>
     <row r="7" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
